--- a/artfynd/Trollberget artfynd.xlsx
+++ b/artfynd/Trollberget artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16944757</v>
+        <v>16944827</v>
       </c>
       <c r="B2" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>677428</v>
+        <v>677546</v>
       </c>
       <c r="R2" t="n">
-        <v>7123324</v>
+        <v>7123143</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -764,17 +764,17 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16944827</v>
+        <v>16944757</v>
       </c>
       <c r="B3" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>677546</v>
+        <v>677428</v>
       </c>
       <c r="R3" t="n">
-        <v>7123143</v>
+        <v>7123324</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -876,17 +876,17 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16945079</v>
+        <v>16944759</v>
       </c>
       <c r="B14" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2020,21 +2020,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>677170</v>
+        <v>677051</v>
       </c>
       <c r="R14" t="n">
-        <v>7124258</v>
+        <v>7123797</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2093,17 +2093,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2121,45 +2121,50 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16944759</v>
+        <v>16944352</v>
       </c>
       <c r="B15" t="n">
-        <v>80083</v>
+        <v>4869</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>101675</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspvedgnagare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ptilinus fuscus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Geoffroy, 1785)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Trollberget, Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>677051</v>
+        <v>677158</v>
       </c>
       <c r="R15" t="n">
-        <v>7123797</v>
+        <v>7123949</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2205,17 +2210,22 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>bark/ved</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula # bark/ved</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2233,50 +2243,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16944352</v>
+        <v>16945079</v>
       </c>
       <c r="B16" t="n">
-        <v>4869</v>
+        <v>91245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>101675</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aspvedgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ptilinus fuscus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Geoffroy, 1785)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Trollberget, Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>677158</v>
+        <v>677170</v>
       </c>
       <c r="R16" t="n">
-        <v>7123949</v>
+        <v>7124258</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2322,22 +2327,17 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>bark/ved</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Populus tremula # bark/ved</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2467,32 +2467,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16944551</v>
+        <v>16944881</v>
       </c>
       <c r="B18" t="n">
-        <v>91259</v>
+        <v>79987</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>677057</v>
+        <v>677175</v>
       </c>
       <c r="R18" t="n">
-        <v>7123784</v>
+        <v>7124063</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2551,22 +2551,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>låga</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Picea abies # låga</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2584,32 +2579,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16944881</v>
+        <v>16944551</v>
       </c>
       <c r="B19" t="n">
-        <v>79987</v>
+        <v>91259</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6456</v>
+        <v>1204</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2619,10 +2614,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>677175</v>
+        <v>677057</v>
       </c>
       <c r="R19" t="n">
-        <v>7124063</v>
+        <v>7123784</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2668,17 +2663,22 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>låga</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies # låga</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>

--- a/artfynd/Trollberget artfynd.xlsx
+++ b/artfynd/Trollberget artfynd.xlsx
@@ -1225,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16944514</v>
+        <v>16945081</v>
       </c>
       <c r="B7" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,21 +1236,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>677569</v>
+        <v>677697</v>
       </c>
       <c r="R7" t="n">
-        <v>7123132</v>
+        <v>7123661</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16945081</v>
+        <v>16944514</v>
       </c>
       <c r="B10" t="n">
-        <v>91245</v>
+        <v>91263</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>677697</v>
+        <v>677569</v>
       </c>
       <c r="R10" t="n">
-        <v>7123661</v>
+        <v>7123132</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16944759</v>
+        <v>16945079</v>
       </c>
       <c r="B14" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2020,21 +2020,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>677051</v>
+        <v>677170</v>
       </c>
       <c r="R14" t="n">
-        <v>7123797</v>
+        <v>7124258</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2093,17 +2093,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2121,50 +2121,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16944352</v>
+        <v>16944759</v>
       </c>
       <c r="B15" t="n">
-        <v>4869</v>
+        <v>80083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>101675</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aspvedgnagare</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ptilinus fuscus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Geoffroy, 1785)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Trollberget, Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>677158</v>
+        <v>677051</v>
       </c>
       <c r="R15" t="n">
-        <v>7123949</v>
+        <v>7123797</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2210,22 +2205,17 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>bark/ved</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Populus tremula # bark/ved</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2243,45 +2233,50 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16945079</v>
+        <v>16944352</v>
       </c>
       <c r="B16" t="n">
-        <v>91245</v>
+        <v>4869</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>101675</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspvedgnagare</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Ptilinus fuscus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Geoffroy, 1785)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Trollberget, Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>677170</v>
+        <v>677158</v>
       </c>
       <c r="R16" t="n">
-        <v>7124258</v>
+        <v>7123949</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2327,17 +2322,22 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>bark/ved</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula # bark/ved</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2467,32 +2467,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16944881</v>
+        <v>16944551</v>
       </c>
       <c r="B18" t="n">
-        <v>79987</v>
+        <v>91259</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6456</v>
+        <v>1204</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>677175</v>
+        <v>677057</v>
       </c>
       <c r="R18" t="n">
-        <v>7124063</v>
+        <v>7123784</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2551,17 +2551,22 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>låga</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies # låga</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2579,32 +2584,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16944551</v>
+        <v>16944881</v>
       </c>
       <c r="B19" t="n">
-        <v>91259</v>
+        <v>79987</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1204</v>
+        <v>6456</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2614,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>677057</v>
+        <v>677175</v>
       </c>
       <c r="R19" t="n">
-        <v>7123784</v>
+        <v>7124063</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2663,22 +2668,17 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>låga</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies # låga</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2808,32 +2808,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16944760</v>
+        <v>16944423</v>
       </c>
       <c r="B21" t="n">
-        <v>80083</v>
+        <v>80118</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>677434</v>
+        <v>677091</v>
       </c>
       <c r="R21" t="n">
-        <v>7123449</v>
+        <v>7124184</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2920,32 +2920,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16944423</v>
+        <v>16944760</v>
       </c>
       <c r="B22" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>677091</v>
+        <v>677434</v>
       </c>
       <c r="R22" t="n">
-        <v>7124184</v>
+        <v>7123449</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
